--- a/excel/import_data_barang.xlsx
+++ b/excel/import_data_barang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\fano2.11_CI_KOYOS\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596B1603-591B-4275-A967-79F25EF29253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B9E88B-F80F-49B5-B9E7-45E66FD68C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="34">
   <si>
     <t>foto</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Nyoba yaaa</t>
+  </si>
+  <si>
+    <t>http://localhost/fano2.11_CI_KOYOS/inti/images/photo.png</t>
   </si>
 </sst>
 </file>
@@ -559,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47:N49"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,20 +687,20 @@
       <c r="N2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2">
-        <v>12</v>
-      </c>
-      <c r="P2">
-        <v>12</v>
-      </c>
-      <c r="Q2">
-        <v>12</v>
-      </c>
-      <c r="R2">
-        <v>12</v>
-      </c>
-      <c r="S2">
-        <v>12</v>
+      <c r="O2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,20 +746,20 @@
       <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O3">
-        <v>12</v>
-      </c>
-      <c r="P3">
-        <v>12</v>
-      </c>
-      <c r="Q3">
-        <v>12</v>
-      </c>
-      <c r="R3">
-        <v>12</v>
-      </c>
-      <c r="S3">
-        <v>12</v>
+      <c r="O3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -802,20 +805,20 @@
       <c r="N4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O4">
-        <v>12</v>
-      </c>
-      <c r="P4">
-        <v>12</v>
-      </c>
-      <c r="Q4">
-        <v>12</v>
-      </c>
-      <c r="R4">
-        <v>12</v>
-      </c>
-      <c r="S4">
-        <v>12</v>
+      <c r="O4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -861,20 +864,20 @@
       <c r="N5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O5">
-        <v>12</v>
-      </c>
-      <c r="P5">
-        <v>12</v>
-      </c>
-      <c r="Q5">
-        <v>12</v>
-      </c>
-      <c r="R5">
-        <v>12</v>
-      </c>
-      <c r="S5">
-        <v>12</v>
+      <c r="O5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -920,20 +923,20 @@
       <c r="N6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O6">
-        <v>12</v>
-      </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
-      <c r="Q6">
-        <v>12</v>
-      </c>
-      <c r="R6">
-        <v>12</v>
-      </c>
-      <c r="S6">
-        <v>12</v>
+      <c r="O6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,20 +982,20 @@
       <c r="N7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O7">
-        <v>12</v>
-      </c>
-      <c r="P7">
-        <v>12</v>
-      </c>
-      <c r="Q7">
-        <v>12</v>
-      </c>
-      <c r="R7">
-        <v>12</v>
-      </c>
-      <c r="S7">
-        <v>12</v>
+      <c r="O7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1038,20 +1041,20 @@
       <c r="N8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O8">
-        <v>12</v>
-      </c>
-      <c r="P8">
-        <v>12</v>
-      </c>
-      <c r="Q8">
-        <v>12</v>
-      </c>
-      <c r="R8">
-        <v>12</v>
-      </c>
-      <c r="S8">
-        <v>12</v>
+      <c r="O8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,20 +1100,20 @@
       <c r="N9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O9">
-        <v>12</v>
-      </c>
-      <c r="P9">
-        <v>12</v>
-      </c>
-      <c r="Q9">
-        <v>12</v>
-      </c>
-      <c r="R9">
-        <v>12</v>
-      </c>
-      <c r="S9">
-        <v>12</v>
+      <c r="O9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1156,20 +1159,20 @@
       <c r="N10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O10">
-        <v>12</v>
-      </c>
-      <c r="P10">
-        <v>12</v>
-      </c>
-      <c r="Q10">
-        <v>12</v>
-      </c>
-      <c r="R10">
-        <v>12</v>
-      </c>
-      <c r="S10">
-        <v>12</v>
+      <c r="O10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1215,20 +1218,20 @@
       <c r="N11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O11">
-        <v>12</v>
-      </c>
-      <c r="P11">
-        <v>12</v>
-      </c>
-      <c r="Q11">
-        <v>12</v>
-      </c>
-      <c r="R11">
-        <v>12</v>
-      </c>
-      <c r="S11">
-        <v>12</v>
+      <c r="O11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,20 +1277,20 @@
       <c r="N12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O12">
-        <v>12</v>
-      </c>
-      <c r="P12">
-        <v>12</v>
-      </c>
-      <c r="Q12">
-        <v>12</v>
-      </c>
-      <c r="R12">
-        <v>12</v>
-      </c>
-      <c r="S12">
-        <v>12</v>
+      <c r="O12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1333,20 +1336,20 @@
       <c r="N13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O13">
-        <v>12</v>
-      </c>
-      <c r="P13">
-        <v>12</v>
-      </c>
-      <c r="Q13">
-        <v>12</v>
-      </c>
-      <c r="R13">
-        <v>12</v>
-      </c>
-      <c r="S13">
-        <v>12</v>
+      <c r="O13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1392,20 +1395,20 @@
       <c r="N14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O14">
-        <v>12</v>
-      </c>
-      <c r="P14">
-        <v>12</v>
-      </c>
-      <c r="Q14">
-        <v>12</v>
-      </c>
-      <c r="R14">
-        <v>12</v>
-      </c>
-      <c r="S14">
-        <v>12</v>
+      <c r="O14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1451,20 +1454,20 @@
       <c r="N15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O15">
-        <v>12</v>
-      </c>
-      <c r="P15">
-        <v>12</v>
-      </c>
-      <c r="Q15">
-        <v>12</v>
-      </c>
-      <c r="R15">
-        <v>12</v>
-      </c>
-      <c r="S15">
-        <v>12</v>
+      <c r="O15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1510,20 +1513,20 @@
       <c r="N16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O16">
-        <v>12</v>
-      </c>
-      <c r="P16">
-        <v>12</v>
-      </c>
-      <c r="Q16">
-        <v>12</v>
-      </c>
-      <c r="R16">
-        <v>12</v>
-      </c>
-      <c r="S16">
-        <v>12</v>
+      <c r="O16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1569,20 +1572,20 @@
       <c r="N17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O17">
-        <v>12</v>
-      </c>
-      <c r="P17">
-        <v>12</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
-      </c>
-      <c r="R17">
-        <v>12</v>
-      </c>
-      <c r="S17">
-        <v>12</v>
+      <c r="O17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1628,20 +1631,20 @@
       <c r="N18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O18">
-        <v>12</v>
-      </c>
-      <c r="P18">
-        <v>12</v>
-      </c>
-      <c r="Q18">
-        <v>12</v>
-      </c>
-      <c r="R18">
-        <v>12</v>
-      </c>
-      <c r="S18">
-        <v>12</v>
+      <c r="O18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1687,20 +1690,20 @@
       <c r="N19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O19">
-        <v>12</v>
-      </c>
-      <c r="P19">
-        <v>12</v>
-      </c>
-      <c r="Q19">
-        <v>12</v>
-      </c>
-      <c r="R19">
-        <v>12</v>
-      </c>
-      <c r="S19">
-        <v>12</v>
+      <c r="O19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1746,20 +1749,20 @@
       <c r="N20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O20">
-        <v>12</v>
-      </c>
-      <c r="P20">
-        <v>12</v>
-      </c>
-      <c r="Q20">
-        <v>12</v>
-      </c>
-      <c r="R20">
-        <v>12</v>
-      </c>
-      <c r="S20">
-        <v>12</v>
+      <c r="O20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1805,20 +1808,20 @@
       <c r="N21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O21">
-        <v>12</v>
-      </c>
-      <c r="P21">
-        <v>12</v>
-      </c>
-      <c r="Q21">
-        <v>12</v>
-      </c>
-      <c r="R21">
-        <v>12</v>
-      </c>
-      <c r="S21">
-        <v>12</v>
+      <c r="O21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1864,20 +1867,20 @@
       <c r="N22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O22">
-        <v>12</v>
-      </c>
-      <c r="P22">
-        <v>12</v>
-      </c>
-      <c r="Q22">
-        <v>12</v>
-      </c>
-      <c r="R22">
-        <v>12</v>
-      </c>
-      <c r="S22">
-        <v>12</v>
+      <c r="O22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1923,20 +1926,20 @@
       <c r="N23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O23">
-        <v>12</v>
-      </c>
-      <c r="P23">
-        <v>12</v>
-      </c>
-      <c r="Q23">
-        <v>12</v>
-      </c>
-      <c r="R23">
-        <v>12</v>
-      </c>
-      <c r="S23">
-        <v>12</v>
+      <c r="O23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1982,20 +1985,20 @@
       <c r="N24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O24">
-        <v>12</v>
-      </c>
-      <c r="P24">
-        <v>12</v>
-      </c>
-      <c r="Q24">
-        <v>12</v>
-      </c>
-      <c r="R24">
-        <v>12</v>
-      </c>
-      <c r="S24">
-        <v>12</v>
+      <c r="O24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2041,20 +2044,20 @@
       <c r="N25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O25">
-        <v>12</v>
-      </c>
-      <c r="P25">
-        <v>12</v>
-      </c>
-      <c r="Q25">
-        <v>12</v>
-      </c>
-      <c r="R25">
-        <v>12</v>
-      </c>
-      <c r="S25">
-        <v>12</v>
+      <c r="O25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2100,20 +2103,20 @@
       <c r="N26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O26">
-        <v>12</v>
-      </c>
-      <c r="P26">
-        <v>12</v>
-      </c>
-      <c r="Q26">
-        <v>12</v>
-      </c>
-      <c r="R26">
-        <v>12</v>
-      </c>
-      <c r="S26">
-        <v>12</v>
+      <c r="O26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2159,20 +2162,20 @@
       <c r="N27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O27">
-        <v>12</v>
-      </c>
-      <c r="P27">
-        <v>12</v>
-      </c>
-      <c r="Q27">
-        <v>12</v>
-      </c>
-      <c r="R27">
-        <v>12</v>
-      </c>
-      <c r="S27">
-        <v>12</v>
+      <c r="O27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2218,20 +2221,20 @@
       <c r="N28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O28">
-        <v>12</v>
-      </c>
-      <c r="P28">
-        <v>12</v>
-      </c>
-      <c r="Q28">
-        <v>12</v>
-      </c>
-      <c r="R28">
-        <v>12</v>
-      </c>
-      <c r="S28">
-        <v>12</v>
+      <c r="O28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2277,20 +2280,20 @@
       <c r="N29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O29">
-        <v>12</v>
-      </c>
-      <c r="P29">
-        <v>12</v>
-      </c>
-      <c r="Q29">
-        <v>12</v>
-      </c>
-      <c r="R29">
-        <v>12</v>
-      </c>
-      <c r="S29">
-        <v>12</v>
+      <c r="O29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2336,20 +2339,20 @@
       <c r="N30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O30">
-        <v>12</v>
-      </c>
-      <c r="P30">
-        <v>12</v>
-      </c>
-      <c r="Q30">
-        <v>12</v>
-      </c>
-      <c r="R30">
-        <v>12</v>
-      </c>
-      <c r="S30">
-        <v>12</v>
+      <c r="O30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2395,20 +2398,20 @@
       <c r="N31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O31">
-        <v>12</v>
-      </c>
-      <c r="P31">
-        <v>12</v>
-      </c>
-      <c r="Q31">
-        <v>12</v>
-      </c>
-      <c r="R31">
-        <v>12</v>
-      </c>
-      <c r="S31">
-        <v>12</v>
+      <c r="O31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2454,20 +2457,20 @@
       <c r="N32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O32">
-        <v>12</v>
-      </c>
-      <c r="P32">
-        <v>12</v>
-      </c>
-      <c r="Q32">
-        <v>12</v>
-      </c>
-      <c r="R32">
-        <v>12</v>
-      </c>
-      <c r="S32">
-        <v>12</v>
+      <c r="O32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2513,20 +2516,20 @@
       <c r="N33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O33">
-        <v>12</v>
-      </c>
-      <c r="P33">
-        <v>12</v>
-      </c>
-      <c r="Q33">
-        <v>12</v>
-      </c>
-      <c r="R33">
-        <v>12</v>
-      </c>
-      <c r="S33">
-        <v>12</v>
+      <c r="O33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2572,20 +2575,20 @@
       <c r="N34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O34">
-        <v>12</v>
-      </c>
-      <c r="P34">
-        <v>12</v>
-      </c>
-      <c r="Q34">
-        <v>12</v>
-      </c>
-      <c r="R34">
-        <v>12</v>
-      </c>
-      <c r="S34">
-        <v>12</v>
+      <c r="O34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2631,20 +2634,20 @@
       <c r="N35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O35">
-        <v>12</v>
-      </c>
-      <c r="P35">
-        <v>12</v>
-      </c>
-      <c r="Q35">
-        <v>12</v>
-      </c>
-      <c r="R35">
-        <v>12</v>
-      </c>
-      <c r="S35">
-        <v>12</v>
+      <c r="O35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2690,20 +2693,20 @@
       <c r="N36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O36">
-        <v>12</v>
-      </c>
-      <c r="P36">
-        <v>12</v>
-      </c>
-      <c r="Q36">
-        <v>12</v>
-      </c>
-      <c r="R36">
-        <v>12</v>
-      </c>
-      <c r="S36">
-        <v>12</v>
+      <c r="O36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2749,20 +2752,20 @@
       <c r="N37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O37">
-        <v>12</v>
-      </c>
-      <c r="P37">
-        <v>12</v>
-      </c>
-      <c r="Q37">
-        <v>12</v>
-      </c>
-      <c r="R37">
-        <v>12</v>
-      </c>
-      <c r="S37">
-        <v>12</v>
+      <c r="O37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2808,20 +2811,20 @@
       <c r="N38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O38">
-        <v>12</v>
-      </c>
-      <c r="P38">
-        <v>12</v>
-      </c>
-      <c r="Q38">
-        <v>12</v>
-      </c>
-      <c r="R38">
-        <v>12</v>
-      </c>
-      <c r="S38">
-        <v>12</v>
+      <c r="O38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2867,20 +2870,20 @@
       <c r="N39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O39">
-        <v>12</v>
-      </c>
-      <c r="P39">
-        <v>12</v>
-      </c>
-      <c r="Q39">
-        <v>12</v>
-      </c>
-      <c r="R39">
-        <v>12</v>
-      </c>
-      <c r="S39">
-        <v>12</v>
+      <c r="O39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2926,20 +2929,20 @@
       <c r="N40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O40">
-        <v>12</v>
-      </c>
-      <c r="P40">
-        <v>12</v>
-      </c>
-      <c r="Q40">
-        <v>12</v>
-      </c>
-      <c r="R40">
-        <v>12</v>
-      </c>
-      <c r="S40">
-        <v>12</v>
+      <c r="O40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2985,20 +2988,20 @@
       <c r="N41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O41">
-        <v>12</v>
-      </c>
-      <c r="P41">
-        <v>12</v>
-      </c>
-      <c r="Q41">
-        <v>12</v>
-      </c>
-      <c r="R41">
-        <v>12</v>
-      </c>
-      <c r="S41">
-        <v>12</v>
+      <c r="O41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3044,20 +3047,20 @@
       <c r="N42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O42">
-        <v>12</v>
-      </c>
-      <c r="P42">
-        <v>12</v>
-      </c>
-      <c r="Q42">
-        <v>12</v>
-      </c>
-      <c r="R42">
-        <v>12</v>
-      </c>
-      <c r="S42">
-        <v>12</v>
+      <c r="O42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3103,20 +3106,20 @@
       <c r="N43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O43">
-        <v>12</v>
-      </c>
-      <c r="P43">
-        <v>12</v>
-      </c>
-      <c r="Q43">
-        <v>12</v>
-      </c>
-      <c r="R43">
-        <v>12</v>
-      </c>
-      <c r="S43">
-        <v>12</v>
+      <c r="O43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3162,20 +3165,20 @@
       <c r="N44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O44">
-        <v>12</v>
-      </c>
-      <c r="P44">
-        <v>12</v>
-      </c>
-      <c r="Q44">
-        <v>12</v>
-      </c>
-      <c r="R44">
-        <v>12</v>
-      </c>
-      <c r="S44">
-        <v>12</v>
+      <c r="O44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3221,20 +3224,20 @@
       <c r="N45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O45">
-        <v>12</v>
-      </c>
-      <c r="P45">
-        <v>12</v>
-      </c>
-      <c r="Q45">
-        <v>12</v>
-      </c>
-      <c r="R45">
-        <v>12</v>
-      </c>
-      <c r="S45">
-        <v>12</v>
+      <c r="O45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3280,20 +3283,20 @@
       <c r="N46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O46">
-        <v>12</v>
-      </c>
-      <c r="P46">
-        <v>12</v>
-      </c>
-      <c r="Q46">
-        <v>12</v>
-      </c>
-      <c r="R46">
-        <v>12</v>
-      </c>
-      <c r="S46">
-        <v>12</v>
+      <c r="O46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3339,20 +3342,20 @@
       <c r="N47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O47">
-        <v>12</v>
-      </c>
-      <c r="P47">
-        <v>12</v>
-      </c>
-      <c r="Q47">
-        <v>12</v>
-      </c>
-      <c r="R47">
-        <v>12</v>
-      </c>
-      <c r="S47">
-        <v>12</v>
+      <c r="O47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3398,20 +3401,20 @@
       <c r="N48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O48">
-        <v>12</v>
-      </c>
-      <c r="P48">
-        <v>12</v>
-      </c>
-      <c r="Q48">
-        <v>12</v>
-      </c>
-      <c r="R48">
-        <v>12</v>
-      </c>
-      <c r="S48">
-        <v>12</v>
+      <c r="O48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3457,20 +3460,20 @@
       <c r="N49" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O49">
-        <v>12</v>
-      </c>
-      <c r="P49">
-        <v>12</v>
-      </c>
-      <c r="Q49">
-        <v>12</v>
-      </c>
-      <c r="R49">
-        <v>12</v>
-      </c>
-      <c r="S49">
-        <v>12</v>
+      <c r="O49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3524,11 +3527,21 @@
     <hyperlink ref="C47" r:id="rId46" display="http://kavio_such_ci.test/Blog" xr:uid="{ADF480DA-DC68-42FE-8437-3378A6E0DCB1}"/>
     <hyperlink ref="C48" r:id="rId47" display="http://kavio_such_ci.test/Blog" xr:uid="{83902937-324A-4951-93CA-10F7FE2B87FC}"/>
     <hyperlink ref="C49" r:id="rId48" display="http://kavio_such_ci.test/Blog" xr:uid="{B32029ED-1DF7-469D-8757-ED0F569BCD18}"/>
+    <hyperlink ref="O2" r:id="rId49" xr:uid="{E35BC685-2E9C-452E-B1F4-6B1369E18BB4}"/>
+    <hyperlink ref="O3:O49" r:id="rId50" display="http://localhost/fano2.11_CI_KOYOS/inti/images/photo.png" xr:uid="{0ADC085B-FD93-48B4-A18E-8D3D8C794FB4}"/>
+    <hyperlink ref="P2" r:id="rId51" xr:uid="{3792CCC6-4A33-4981-A13F-63451BF60633}"/>
+    <hyperlink ref="P3:P49" r:id="rId52" display="http://localhost/fano2.11_CI_KOYOS/inti/images/photo.png" xr:uid="{BAAEB6CB-28D5-4AB4-90BC-F7AFC2DAECDF}"/>
+    <hyperlink ref="Q2" r:id="rId53" xr:uid="{23A2D86A-2C91-448E-9C8F-B59EC0530922}"/>
+    <hyperlink ref="Q3:Q49" r:id="rId54" display="http://localhost/fano2.11_CI_KOYOS/inti/images/photo.png" xr:uid="{27CA55D4-9C1C-4324-87A1-4E293A03D417}"/>
+    <hyperlink ref="R2" r:id="rId55" xr:uid="{C1122E35-632E-4D33-BA77-F66861FE1413}"/>
+    <hyperlink ref="R3:R49" r:id="rId56" display="http://localhost/fano2.11_CI_KOYOS/inti/images/photo.png" xr:uid="{905D4F3F-26F6-481D-93B8-726A9AB0300C}"/>
+    <hyperlink ref="S2" r:id="rId57" xr:uid="{ACAAAA08-7D8A-481A-BFD0-0E849FA3FC9D}"/>
+    <hyperlink ref="S3:S49" r:id="rId58" display="http://localhost/fano2.11_CI_KOYOS/inti/images/photo.png" xr:uid="{9A88CFDB-8670-4896-AF6D-CE31CD9539E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId49"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId59"/>
   <tableParts count="1">
-    <tablePart r:id="rId50"/>
+    <tablePart r:id="rId60"/>
   </tableParts>
 </worksheet>
 </file>
--- a/excel/import_data_barang.xlsx
+++ b/excel/import_data_barang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\fano2.11_CI_KOYOS\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B9E88B-F80F-49B5-B9E7-45E66FD68C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26831C1F-F8EE-41DA-831A-CCFA50498B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="33">
   <si>
     <t>foto</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
-  </si>
-  <si>
-    <t>S, M, L, XL, XXL</t>
   </si>
   <si>
     <t>Sku</t>
@@ -562,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +568,7 @@
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" customWidth="1"/>
@@ -596,52 +593,52 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
       </c>
       <c r="O1" t="s">
         <v>0</v>
       </c>
       <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>26</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -654,53 +651,53 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
+      <c r="D2">
+        <v>2020063001</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2">
-        <v>27</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,53 +710,53 @@
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
+      <c r="D3">
+        <v>2020063002</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3">
         <v>28</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -772,53 +769,53 @@
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
+      <c r="D4">
+        <v>2020063003</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4">
         <v>29</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -831,53 +828,53 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
+      <c r="D5">
+        <v>2020063004</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5">
         <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -890,53 +887,53 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
+      <c r="D6">
+        <v>2020063005</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6">
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -949,53 +946,53 @@
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
+      <c r="D7">
+        <v>2020063006</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7">
-        <v>32</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="O7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1008,53 +1005,53 @@
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
+      <c r="D8">
+        <v>2020063007</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8">
         <v>33</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,53 +1064,53 @@
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
+      <c r="D9">
+        <v>2020063008</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M9">
         <v>34</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1126,53 +1123,53 @@
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
+      <c r="D10">
+        <v>2020063009</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10">
         <v>35</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1185,53 +1182,53 @@
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
+      <c r="D11">
+        <v>2020063010</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11">
         <v>36</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,53 +1241,53 @@
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
+      <c r="D12">
+        <v>2020063011</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M12">
         <v>37</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1303,53 +1300,53 @@
       <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
+      <c r="D13">
+        <v>2020063012</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M13">
         <v>38</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1362,53 +1359,53 @@
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
+      <c r="D14">
+        <v>2020063013</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14">
         <v>39</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1421,53 +1418,53 @@
       <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
+      <c r="D15">
+        <v>2020063014</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M15">
         <v>40</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1480,53 +1477,53 @@
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>6</v>
+      <c r="D16">
+        <v>2020063015</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M16">
         <v>41</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1539,53 +1536,53 @@
       <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
+      <c r="D17">
+        <v>2020063016</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M17">
         <v>42</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1598,53 +1595,53 @@
       <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
+      <c r="D18">
+        <v>2020063017</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M18">
         <v>43</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1657,53 +1654,53 @@
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
+      <c r="D19">
+        <v>2020063018</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M19">
         <v>44</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1716,53 +1713,53 @@
       <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
+      <c r="D20">
+        <v>2020063019</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M20">
         <v>45</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1775,53 +1772,53 @@
       <c r="C21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>6</v>
+      <c r="D21">
+        <v>2020063020</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M21">
         <v>46</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1834,53 +1831,53 @@
       <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
+      <c r="D22">
+        <v>2020063021</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M22">
         <v>47</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1893,53 +1890,53 @@
       <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
+      <c r="D23">
+        <v>2020063022</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M23">
         <v>48</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1952,53 +1949,53 @@
       <c r="C24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>6</v>
+      <c r="D24">
+        <v>2020063023</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M24">
         <v>49</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,53 +2008,53 @@
       <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>6</v>
+      <c r="D25">
+        <v>2020063024</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M25">
         <v>50</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2070,53 +2067,53 @@
       <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>6</v>
+      <c r="D26">
+        <v>2020063025</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M26">
         <v>51</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2129,53 +2126,53 @@
       <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>6</v>
+      <c r="D27">
+        <v>2020063026</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M27">
         <v>52</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2188,53 +2185,53 @@
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>6</v>
+      <c r="D28">
+        <v>2020063027</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M28">
         <v>53</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2247,53 +2244,53 @@
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>6</v>
+      <c r="D29">
+        <v>2020063028</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M29">
         <v>54</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2306,53 +2303,53 @@
       <c r="C30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>6</v>
+      <c r="D30">
+        <v>2020063029</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M30">
         <v>55</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2365,53 +2362,53 @@
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>6</v>
+      <c r="D31">
+        <v>2020063030</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M31">
         <v>56</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2424,53 +2421,53 @@
       <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>6</v>
+      <c r="D32">
+        <v>2020063031</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M32">
         <v>57</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2483,53 +2480,53 @@
       <c r="C33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>6</v>
+      <c r="D33">
+        <v>2020063032</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M33">
         <v>58</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2542,53 +2539,53 @@
       <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>6</v>
+      <c r="D34">
+        <v>2020063033</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M34">
         <v>59</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2601,53 +2598,53 @@
       <c r="C35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>6</v>
+      <c r="D35">
+        <v>2020063034</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M35">
         <v>60</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2660,53 +2657,53 @@
       <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>6</v>
+      <c r="D36">
+        <v>2020063035</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M36">
         <v>61</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2719,53 +2716,53 @@
       <c r="C37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>6</v>
+      <c r="D37">
+        <v>2020063036</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M37">
         <v>62</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2778,53 +2775,53 @@
       <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>6</v>
+      <c r="D38">
+        <v>2020063037</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M38">
         <v>63</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2837,53 +2834,53 @@
       <c r="C39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>6</v>
+      <c r="D39">
+        <v>2020063038</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M39">
         <v>64</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2896,53 +2893,53 @@
       <c r="C40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>6</v>
+      <c r="D40">
+        <v>2020063039</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M40">
         <v>65</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -2955,53 +2952,53 @@
       <c r="C41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>6</v>
+      <c r="D41">
+        <v>2020063040</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M41">
         <v>66</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3014,53 +3011,53 @@
       <c r="C42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>6</v>
+      <c r="D42">
+        <v>2020063041</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M42">
         <v>67</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3073,53 +3070,53 @@
       <c r="C43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>6</v>
+      <c r="D43">
+        <v>2020063042</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M43">
         <v>68</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3132,53 +3129,53 @@
       <c r="C44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>6</v>
+      <c r="D44">
+        <v>2020063043</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M44">
         <v>69</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3191,53 +3188,53 @@
       <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>6</v>
+      <c r="D45">
+        <v>2020063044</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M45">
         <v>70</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3250,53 +3247,53 @@
       <c r="C46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>6</v>
+      <c r="D46">
+        <v>2020063045</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M46">
         <v>71</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3309,53 +3306,53 @@
       <c r="C47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>6</v>
+      <c r="D47">
+        <v>2020063046</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M47">
         <v>72</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3368,53 +3365,53 @@
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>6</v>
+      <c r="D48">
+        <v>2020063047</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M48">
         <v>73</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="225" x14ac:dyDescent="0.25">
@@ -3427,53 +3424,53 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>6</v>
+      <c r="D49">
+        <v>2020063048</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M49">
         <v>74</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
